--- a/results/optimization_results/qa/qa_results.xlsx
+++ b/results/optimization_results/qa/qa_results.xlsx
@@ -1946,7 +1946,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2184,6 +2184,206 @@
       </c>
       <c r="F11" t="n">
         <v>1.181910518570279</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>608</v>
+      </c>
+      <c r="C12" t="n">
+        <v>35.57893896159422</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.001</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="n">
+        <v>613</v>
+      </c>
+      <c r="C13" t="n">
+        <v>14.43370405830502</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3079846385005394</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.8758331993145428</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2.642459626525638</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>617</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.472059333903036</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.338187291993382</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.5689140721391157</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.981702082060714</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>633</v>
+      </c>
+      <c r="C15" t="n">
+        <v>37.46487104357716</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>619</v>
+      </c>
+      <c r="C16" t="n">
+        <v>35.60018327439182</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.727771941716866</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.06507520523356825</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.200327548986884</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>6</v>
+      </c>
+      <c r="B17" t="n">
+        <v>621</v>
+      </c>
+      <c r="C17" t="n">
+        <v>33.55139664766729</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.194904044790017</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.6280816901515246</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.729623129306444</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>7</v>
+      </c>
+      <c r="B18" t="n">
+        <v>633</v>
+      </c>
+      <c r="C18" t="n">
+        <v>10.94186633782868</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.204772014142755</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.9282523303781325</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2.271917763974799</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>8</v>
+      </c>
+      <c r="B19" t="n">
+        <v>627</v>
+      </c>
+      <c r="C19" t="n">
+        <v>5.269805997601083</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.5943730024893901</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.8790064180212761</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.415949102927504</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>9</v>
+      </c>
+      <c r="B20" t="n">
+        <v>643</v>
+      </c>
+      <c r="C20" t="n">
+        <v>34.54245327933843</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.876331964609189</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.9408624466819731</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2.88886469693255</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>10</v>
+      </c>
+      <c r="B21" t="n">
+        <v>623</v>
+      </c>
+      <c r="C21" t="n">
+        <v>16.67757733126458</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.2469772544864867</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.447108540977185</v>
       </c>
     </row>
   </sheetData>
